--- a/data/trans_dic/P1429-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1429-Edad-trans_dic.xlsx
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.001950004081924687</v>
+        <v>0.001952534152523585</v>
       </c>
       <c r="H5" s="5" t="inlineStr"/>
       <c r="I5" s="5" t="inlineStr"/>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0009548328429225352</v>
+        <v>0.0009468762923786838</v>
       </c>
       <c r="L5" s="5" t="inlineStr"/>
       <c r="M5" s="5" t="inlineStr"/>
@@ -741,23 +741,23 @@
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.03784322622718991</v>
+        <v>0.03803612754750899</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01943904023213028</v>
+        <v>0.01884925161845647</v>
       </c>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="n">
-        <v>0.04714986896475245</v>
+        <v>0.04165725605912234</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.008592606521913116</v>
+        <v>0.008618265066208809</v>
       </c>
       <c r="L6" s="5" t="inlineStr"/>
       <c r="M6" s="5" t="inlineStr"/>
       <c r="N6" s="5" t="n">
-        <v>0.03145698963983803</v>
+        <v>0.03177751614039632</v>
       </c>
     </row>
     <row r="7">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.001365059456604961</v>
+        <v>0.001371242644508331</v>
       </c>
       <c r="D8" s="5" t="inlineStr"/>
       <c r="E8" s="5" t="inlineStr"/>
@@ -825,15 +825,15 @@
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.001539264380181741</v>
+        <v>0.001562197379396746</v>
       </c>
       <c r="I8" s="5" t="inlineStr"/>
       <c r="J8" s="5" t="inlineStr"/>
       <c r="K8" s="5" t="n">
-        <v>0.00146252719853048</v>
+        <v>0.001467472820615016</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0007247432593170594</v>
+        <v>0.000733867598349423</v>
       </c>
       <c r="M8" s="5" t="inlineStr"/>
       <c r="N8" s="5" t="inlineStr"/>
@@ -846,24 +846,24 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01507445394878158</v>
+        <v>0.01545876873547145</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="inlineStr"/>
       <c r="G9" s="5" t="n">
-        <v>0.01132858466016178</v>
+        <v>0.01109567597758141</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01965087388737009</v>
+        <v>0.02014169667226108</v>
       </c>
       <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="inlineStr"/>
       <c r="K9" s="5" t="n">
-        <v>0.01040894946475225</v>
+        <v>0.00973179474648342</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.009096232333854763</v>
+        <v>0.01044597819173128</v>
       </c>
       <c r="M9" s="5" t="inlineStr"/>
       <c r="N9" s="5" t="inlineStr"/>
@@ -901,7 +901,7 @@
         <v>0.005670358271831257</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.002874767736721248</v>
+        <v>0.002874767736721249</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.005520896676251785</v>
@@ -934,28 +934,28 @@
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.002852712004136912</v>
+        <v>0.002845868028757897</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.001419359134125153</v>
+        <v>0.001485547731103086</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0007791428689890191</v>
+        <v>0.0007783856350809909</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.00231441584587602</v>
+        <v>0.002273323074380261</v>
       </c>
       <c r="L11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.001369732928757526</v>
+        <v>0.001382156853972294</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.001225937539709751</v>
+        <v>0.000995381655847067</v>
       </c>
     </row>
     <row r="12">
@@ -966,38 +966,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01042089339172114</v>
+        <v>0.0119330508770015</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.006906262876149478</v>
+        <v>0.007111844188014896</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01300730728654102</v>
+        <v>0.01125936843918674</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.0167523735599876</v>
+        <v>0.01686949486117355</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.009513506854507303</v>
+        <v>0.009646654621135098</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01297668105294054</v>
+        <v>0.01419283295343177</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.007982713608786612</v>
+        <v>0.008655310756455427</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01122058609630287</v>
+        <v>0.01061401355402985</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.00585563190400558</v>
+        <v>0.005200826287128208</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.007726607182864726</v>
+        <v>0.007711645961545432</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.007806328992737237</v>
+        <v>0.008215861330815456</v>
       </c>
     </row>
     <row r="13">
@@ -1065,31 +1065,31 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.001068818906562778</v>
+        <v>0.001060479090892356</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01519027963891723</v>
+        <v>0.01671580426437029</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01219016808973608</v>
+        <v>0.01217440796613052</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.004839728501494831</v>
+        <v>0.004836917484766923</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01019081824369105</v>
+        <v>0.0108783819469189</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.009605128573274288</v>
+        <v>0.009340994194451042</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.006885049250772724</v>
+        <v>0.006807593614639601</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.003341499991037129</v>
+        <v>0.003364189324732566</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.00686698345912641</v>
+        <v>0.006411610249218928</v>
       </c>
     </row>
     <row r="15">
@@ -1100,40 +1100,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01215086495447075</v>
+        <v>0.01237051257716239</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.008199095763789126</v>
+        <v>0.008256423691202225</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01042122348463924</v>
+        <v>0.0118352060599278</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01216066920161587</v>
+        <v>0.0113948087950816</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04561409406576992</v>
+        <v>0.04521524247185765</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03884791250773383</v>
+        <v>0.03757122920068375</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02275749954502817</v>
+        <v>0.02242361519543522</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0255193048455286</v>
+        <v>0.02632030020144838</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02606422852000653</v>
+        <v>0.02472198231220011</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.01955393766699537</v>
+        <v>0.01970706847211015</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01329132984830743</v>
+        <v>0.0144001853907369</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.01550630638574629</v>
+        <v>0.01464620717868037</v>
       </c>
     </row>
     <row r="16">
@@ -1157,7 +1157,7 @@
         <v>0.004591019132138963</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.009019807267694881</v>
+        <v>0.00901980726769488</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.08442685788697661</v>
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.008209297833002307</v>
+        <v>0.008119222874614206</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
@@ -1201,31 +1201,31 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.003841022261674772</v>
+        <v>0.003867608598367252</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05993623687464923</v>
+        <v>0.05810265413286336</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05589460680981362</v>
+        <v>0.05728315359104658</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02789142155356153</v>
+        <v>0.02884853382195883</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0498968448187614</v>
+        <v>0.05145810287971368</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03820952096924879</v>
+        <v>0.03709441539777133</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02962447214313357</v>
+        <v>0.03000614401929596</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01606916053358409</v>
+        <v>0.01661368443021901</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02855954701982343</v>
+        <v>0.02817063543165031</v>
       </c>
     </row>
     <row r="18">
@@ -1236,40 +1236,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04008071446106124</v>
+        <v>0.04014834576990103</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01142781526570724</v>
+        <v>0.01157477578784883</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01645603130086437</v>
+        <v>0.01450364063934173</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.01795117495150569</v>
+        <v>0.01802728029891316</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1158693372213625</v>
+        <v>0.1130731013571551</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1098374034492157</v>
+        <v>0.1108917583038641</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.06925710684820315</v>
+        <v>0.069319848652245</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.08066837336452226</v>
+        <v>0.08244048977429172</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.07116733467731681</v>
+        <v>0.06984727712190419</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.05794883796751589</v>
+        <v>0.05721143936531455</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03772925116309465</v>
+        <v>0.03833106779787793</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.04635013088754852</v>
+        <v>0.04555577860942252</v>
       </c>
     </row>
     <row r="19">
@@ -1328,38 +1328,38 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01347232518027553</v>
+        <v>0.01308024357003778</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
-        <v>0.008145884295821509</v>
+        <v>0.008645968586408856</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.08765079066169519</v>
+        <v>0.08806347981385126</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.06040288925899202</v>
+        <v>0.06294144081719967</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.08754148385135065</v>
+        <v>0.08309613818818343</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.08328655322798335</v>
+        <v>0.08258152362479854</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.05812758769986286</v>
+        <v>0.05951698320714455</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.03349304358799228</v>
+        <v>0.0338038554471224</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.04497527289538023</v>
+        <v>0.04556165054290982</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.04954332872282578</v>
+        <v>0.05014998792531841</v>
       </c>
     </row>
     <row r="21">
@@ -1370,38 +1370,38 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.05022730970145237</v>
+        <v>0.05274530640021469</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.01739328896687725</v>
+        <v>0.01568939908023351</v>
       </c>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.02823693491004813</v>
+        <v>0.02932383303754537</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1512326464229101</v>
+        <v>0.1554105155542414</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1223957458870223</v>
+        <v>0.1258599349916764</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1534460291639508</v>
+        <v>0.1541688808850649</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1266131132449034</v>
+        <v>0.1258850113332219</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1002097849924603</v>
+        <v>0.1026498151246455</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.06920133216404363</v>
+        <v>0.07007458950956523</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.0805313709688468</v>
+        <v>0.08194730740691336</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.0743099999104244</v>
+        <v>0.07570743189817256</v>
       </c>
     </row>
     <row r="22">
@@ -1425,7 +1425,7 @@
         <v>0.02502820661333423</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.02899821715795717</v>
+        <v>0.02899821715795716</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.1356912805658243</v>
@@ -1437,7 +1437,7 @@
         <v>0.1104999367032262</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.1640037318406058</v>
+        <v>0.1640037318406057</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.10164952109027</v>
@@ -1449,7 +1449,7 @@
         <v>0.07707454595155608</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.1098848243966036</v>
+        <v>0.1098848243966035</v>
       </c>
     </row>
     <row r="23">
@@ -1460,40 +1460,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02568391611779712</v>
+        <v>0.02533050470554177</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.009792436940293687</v>
+        <v>0.01130141800085164</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01582124779369409</v>
+        <v>0.01501259025067614</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1012134103244651</v>
+        <v>0.09854580189949214</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1072186437659601</v>
+        <v>0.1076395865154991</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.08036823386840296</v>
+        <v>0.07769959082246863</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1403921187377611</v>
+        <v>0.1404009380227695</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.07739972538119283</v>
+        <v>0.07720159002738602</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.0673529177479735</v>
+        <v>0.0686587795533983</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.05777261551703251</v>
+        <v>0.05520913532861857</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.09408776212397213</v>
+        <v>0.09336398303616168</v>
       </c>
     </row>
     <row r="24">
@@ -1504,40 +1504,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.08412646147590105</v>
+        <v>0.08324992256211208</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05401911095774931</v>
+        <v>0.05610907975105544</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04946231223332981</v>
+        <v>0.05073156419161237</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.04971997061725135</v>
+        <v>0.04843002841222855</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1760557980840042</v>
+        <v>0.1774340683983917</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1815500061285228</v>
+        <v>0.1826889471294817</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1506888570352075</v>
+        <v>0.1530047733444186</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1894104770242231</v>
+        <v>0.1907903119023821</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.131522095370385</v>
+        <v>0.1341836534692156</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.11628833351467</v>
+        <v>0.1166417962945153</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1044487534957727</v>
+        <v>0.1037721957343185</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1290658169927358</v>
+        <v>0.1264862632802838</v>
       </c>
     </row>
     <row r="25">
@@ -1573,7 +1573,7 @@
         <v>0.03446511985398436</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.04752222791806551</v>
+        <v>0.0475222279180655</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.02691172583257259</v>
@@ -1596,40 +1596,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.007132202488256315</v>
+        <v>0.007276042163943992</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.0006192568244538974</v>
+        <v>0.0006046514020580281</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.001872001500148256</v>
+        <v>0.001836844618927144</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.005531526574221012</v>
+        <v>0.005591106479811779</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.03652129665724761</v>
+        <v>0.03637608336102161</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.03407161122188817</v>
+        <v>0.03423517920016689</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.02867905668324969</v>
+        <v>0.02877663781306042</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.04202142501714563</v>
+        <v>0.04286162273564929</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.02335187974376615</v>
+        <v>0.02299141027019526</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.01793659854298748</v>
+        <v>0.01786669660851987</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.01583692324514779</v>
+        <v>0.01627558797859439</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.02552569029212231</v>
+        <v>0.02561622892697763</v>
       </c>
     </row>
     <row r="27">
@@ -1640,40 +1640,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01436478432986588</v>
+        <v>0.01393444595280612</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.004663975325631471</v>
+        <v>0.004403482314042685</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.00592957333690008</v>
+        <v>0.006320363296015131</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.01270021616072682</v>
+        <v>0.01257790876100922</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.05018124486221819</v>
+        <v>0.04983772481903048</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.04705158672073516</v>
+        <v>0.0478492344442449</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.04093456380757648</v>
+        <v>0.04195886792158163</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.05325849157586324</v>
+        <v>0.0531955348669183</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.03156372192332656</v>
+        <v>0.03089810107108928</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.0250974546837845</v>
+        <v>0.02489529401307068</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.02287381985863342</v>
+        <v>0.0229389285757035</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.03168795332212235</v>
+        <v>0.03190895019707982</v>
       </c>
     </row>
     <row r="28">
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="inlineStr"/>
@@ -1961,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="L6" s="6" t="inlineStr"/>
       <c r="M6" s="6" t="inlineStr"/>
@@ -1980,23 +1980,23 @@
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>15432</v>
+        <v>15511</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>9088</v>
+        <v>8812</v>
       </c>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="inlineStr"/>
       <c r="J7" s="6" t="n">
-        <v>17092</v>
+        <v>15101</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>8262</v>
+        <v>8287</v>
       </c>
       <c r="L7" s="6" t="inlineStr"/>
       <c r="M7" s="6" t="inlineStr"/>
       <c r="N7" s="6" t="n">
-        <v>24231</v>
+        <v>24478</v>
       </c>
     </row>
     <row r="8">
@@ -2099,7 +2099,7 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="D10" s="6" t="inlineStr"/>
       <c r="E10" s="6" t="inlineStr"/>
@@ -2108,15 +2108,15 @@
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>939</v>
+        <v>953</v>
       </c>
       <c r="I10" s="6" t="inlineStr"/>
       <c r="J10" s="6" t="inlineStr"/>
       <c r="K10" s="6" t="n">
-        <v>1990</v>
+        <v>1997</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>940</v>
+        <v>952</v>
       </c>
       <c r="M10" s="6" t="inlineStr"/>
       <c r="N10" s="6" t="inlineStr"/>
@@ -2129,24 +2129,24 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>11087</v>
+        <v>11370</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="n">
-        <v>7086</v>
+        <v>6940</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>11992</v>
+        <v>12292</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="inlineStr"/>
       <c r="K11" s="6" t="n">
-        <v>14166</v>
+        <v>13245</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>11801</v>
+        <v>13552</v>
       </c>
       <c r="M11" s="6" t="inlineStr"/>
       <c r="N11" s="6" t="inlineStr"/>
@@ -2261,28 +2261,28 @@
         <v>0</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1968</v>
+        <v>1963</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>939</v>
+        <v>983</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>3074</v>
+        <v>3020</v>
       </c>
       <c r="L14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1822</v>
+        <v>1839</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1520</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="15">
@@ -2293,38 +2293,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6655</v>
+        <v>7621</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>4621</v>
+        <v>4759</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>8057</v>
+        <v>6974</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>11555</v>
+        <v>11636</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>6751</v>
+        <v>6845</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>8583</v>
+        <v>9387</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>4955</v>
+        <v>5373</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>14906</v>
+        <v>14100</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>8148</v>
+        <v>7237</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>10280</v>
+        <v>10260</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>9681</v>
+        <v>10189</v>
       </c>
     </row>
     <row r="16">
@@ -2436,31 +2436,31 @@
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>7833</v>
+        <v>8619</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>7488</v>
+        <v>7478</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3141</v>
+        <v>3140</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>7462</v>
+        <v>7966</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>9939</v>
+        <v>9666</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>8461</v>
+        <v>8366</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>4328</v>
+        <v>4357</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>9824</v>
+        <v>9173</v>
       </c>
     </row>
     <row r="19">
@@ -2471,40 +2471,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6308</v>
+        <v>6422</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>5039</v>
+        <v>5075</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>6733</v>
+        <v>7646</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>8493</v>
+        <v>7958</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>23521</v>
+        <v>23315</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>23863</v>
+        <v>23079</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>14771</v>
+        <v>14555</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>18687</v>
+        <v>19274</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>26971</v>
+        <v>25582</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>24029</v>
+        <v>24218</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>17214</v>
+        <v>18650</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>22184</v>
+        <v>20954</v>
       </c>
     </row>
     <row r="20">
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3175</v>
+        <v>3140</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
@@ -2616,31 +2616,31 @@
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2337</v>
+        <v>2353</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>24213</v>
+        <v>23473</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>25030</v>
+        <v>25651</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>13858</v>
+        <v>14333</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>30104</v>
+        <v>31046</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>30212</v>
+        <v>29330</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>25987</v>
+        <v>26322</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>15664</v>
+        <v>16194</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>34605</v>
+        <v>34134</v>
       </c>
     </row>
     <row r="23">
@@ -2651,40 +2651,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>15500</v>
+        <v>15526</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>4907</v>
+        <v>4971</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>7865</v>
+        <v>6932</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>10921</v>
+        <v>10967</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>46810</v>
+        <v>45680</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>49185</v>
+        <v>49657</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>34410</v>
+        <v>34441</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>48669</v>
+        <v>49738</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>56272</v>
+        <v>55228</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>50834</v>
+        <v>50188</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>36777</v>
+        <v>37364</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>56162</v>
+        <v>55199</v>
       </c>
     </row>
     <row r="24">
@@ -2787,38 +2787,38 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>3942</v>
+        <v>3827</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>3298</v>
+        <v>3500</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>30058</v>
+        <v>30200</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>21382</v>
+        <v>22281</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>33070</v>
+        <v>31391</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>36412</v>
+        <v>36103</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>36941</v>
+        <v>37824</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>22232</v>
+        <v>22438</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>32027</v>
+        <v>32444</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>41717</v>
+        <v>42228</v>
       </c>
     </row>
     <row r="27">
@@ -2829,38 +2829,38 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>14696</v>
+        <v>15432</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>5388</v>
+        <v>4860</v>
       </c>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>11431</v>
+        <v>11871</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>51863</v>
+        <v>53296</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>43328</v>
+        <v>44554</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>57966</v>
+        <v>58239</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>55353</v>
+        <v>55035</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>63685</v>
+        <v>65236</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>45935</v>
+        <v>46514</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>57346</v>
+        <v>58354</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>62571</v>
+        <v>63748</v>
       </c>
     </row>
     <row r="28">
@@ -2963,40 +2963,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>5391</v>
+        <v>5316</v>
       </c>
       <c r="D30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2517</v>
+        <v>2904</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>4898</v>
+        <v>4648</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>33796</v>
+        <v>32905</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>41587</v>
+        <v>41750</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>32161</v>
+        <v>31093</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>64961</v>
+        <v>64965</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>42089</v>
+        <v>41982</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>42885</v>
+        <v>43716</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>37966</v>
+        <v>36282</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>72664</v>
+        <v>72105</v>
       </c>
     </row>
     <row r="31">
@@ -3007,40 +3007,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>17657</v>
+        <v>17473</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>13443</v>
+        <v>13963</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>12712</v>
+        <v>13038</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>15393</v>
+        <v>14993</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>58786</v>
+        <v>59247</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>70418</v>
+        <v>70860</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>60301</v>
+        <v>61228</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>87642</v>
+        <v>88281</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>71521</v>
+        <v>72968</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>74043</v>
+        <v>74268</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>68640</v>
+        <v>68196</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>99677</v>
+        <v>97685</v>
       </c>
     </row>
     <row r="32">
@@ -3143,40 +3143,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>23369</v>
+        <v>23840</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2121</v>
+        <v>2071</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>6354</v>
+        <v>6235</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>19500</v>
+        <v>19710</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>123413</v>
+        <v>122922</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>121090</v>
+        <v>121671</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>101654</v>
+        <v>102000</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>156312</v>
+        <v>159437</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>155424</v>
+        <v>153025</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>125193</v>
+        <v>124705</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>109891</v>
+        <v>112935</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>184936</v>
+        <v>185592</v>
       </c>
     </row>
     <row r="35">
@@ -3187,40 +3187,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>47067</v>
+        <v>45657</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>15978</v>
+        <v>15085</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>20127</v>
+        <v>21454</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>44772</v>
+        <v>44341</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>169572</v>
+        <v>168411</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>167221</v>
+        <v>170056</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>145094</v>
+        <v>148725</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>198111</v>
+        <v>197877</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>210080</v>
+        <v>205650</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>175174</v>
+        <v>173763</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>158719</v>
+        <v>159171</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>229583</v>
+        <v>231184</v>
       </c>
     </row>
     <row r="36">
